--- a/www/data-entry-template/GLATAR_data_entry_template_v14.xlsx
+++ b/www/data-entry-template/GLATAR_data_entry_template_v14.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/benhlina/Library/CloudStorage/Dropbox/GitHub/GLATAR-App/www/data-entry-template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F843C17E-1814-D243-B2D0-DC26C0840444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AF810B8-3077-1B47-BB7F-C62AD063359C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19460" activeTab="2" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
+    <workbookView xWindow="0" yWindow="660" windowWidth="34560" windowHeight="19460" xr2:uid="{DE6F8925-643B-304C-8933-23D4A9123DA3}"/>
   </bookViews>
   <sheets>
     <sheet name="data_dictionary" sheetId="1" r:id="rId1"/>
-    <sheet name="tbl_sources" sheetId="5" r:id="rId2"/>
-    <sheet name="tbl_samples" sheetId="3" r:id="rId3"/>
+    <sheet name="tbl_submission" sheetId="6" r:id="rId2"/>
+    <sheet name="tbl_sources" sheetId="5" r:id="rId3"/>
+    <sheet name="tbl_samples" sheetId="3" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$4:$D$72</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">data_dictionary!$A$4:$D$75</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +47,7 @@
     <author>Ben Hlina</author>
   </authors>
   <commentList>
-    <comment ref="AL5" authorId="0" shapeId="0" xr:uid="{B4D33EEE-BEDB-B341-9363-9D1C96784118}">
+    <comment ref="AI5" authorId="0" shapeId="0" xr:uid="{B4D33EEE-BEDB-B341-9363-9D1C96784118}">
       <text>
         <r>
           <rPr>
@@ -80,7 +81,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM5" authorId="0" shapeId="0" xr:uid="{238ED598-C074-2B4E-A8CF-63B7194C3AEA}">
+    <comment ref="AJ5" authorId="0" shapeId="0" xr:uid="{238ED598-C074-2B4E-A8CF-63B7194C3AEA}">
       <text>
         <r>
           <rPr>
@@ -182,7 +183,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="243">
   <si>
     <t>Field Name</t>
   </si>
@@ -471,9 +472,6 @@
     <t>month (e.g., 3)</t>
   </si>
   <si>
-    <t xml:space="preserve">age </t>
-  </si>
-  <si>
     <t xml:space="preserve">as in: 1; format: integer </t>
   </si>
   <si>
@@ -522,9 +520,6 @@
     <t>source_id (e.g., 1)</t>
   </si>
   <si>
-    <t>date (2025-03-20)</t>
-  </si>
-  <si>
     <t>publication_type</t>
   </si>
   <si>
@@ -640,9 +635,6 @@
   </si>
   <si>
     <t>sample_weight_type</t>
-  </si>
-  <si>
-    <t>weight_units</t>
   </si>
   <si>
     <t>energy_units</t>
@@ -991,6 +983,45 @@
   </si>
   <si>
     <t>longitude (i.e., ddd.ddddd)</t>
+  </si>
+  <si>
+    <t>date (e.g., YYYY-MM-DD)</t>
+  </si>
+  <si>
+    <t>age_year</t>
+  </si>
+  <si>
+    <t>weight_g</t>
+  </si>
+  <si>
+    <t>SUBMISSON-ENERGY DENSITY/TROPHIC RELATIONSHIP</t>
+  </si>
+  <si>
+    <t>submitted_by</t>
+  </si>
+  <si>
+    <t>submission_email</t>
+  </si>
+  <si>
+    <t>submission_affiliation</t>
+  </si>
+  <si>
+    <t>The GREEN SHADED columns are mandatory. See Data Dictionary sheet for a detailed description of each column.</t>
+  </si>
+  <si>
+    <t>tbl_submission</t>
+  </si>
+  <si>
+    <t>as in: Benjamin L Hlina; format: character</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Name of the person submitting the data </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Email address of submitting person </t>
+  </si>
+  <si>
+    <t>Affilation of submitting person</t>
   </si>
 </sst>
 </file>
@@ -1217,7 +1248,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1281,9 +1312,6 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1292,9 +1320,6 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1338,6 +1363,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1679,37 +1710,37 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCDB0B4B-8041-E244-B061-95D35DE0CD3B}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D72"/>
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.83203125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="62.83203125" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="45.5" style="3" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="47" t="s">
-        <v>166</v>
-      </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
+      <c r="A1" s="45" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
     </row>
     <row r="2" spans="1:4" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="47" t="s">
-        <v>226</v>
-      </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
+      <c r="A2" s="45" t="s">
+        <v>223</v>
+      </c>
+      <c r="B2" s="45"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
@@ -1726,717 +1757,717 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="44" t="s">
+      <c r="A5" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B5" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B6" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>218</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A7" s="51" t="s">
+        <v>238</v>
+      </c>
+      <c r="B7" s="49" t="s">
+        <v>236</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>180</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="16" t="s">
+      <c r="C8" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="D10" s="17" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B6" s="36" t="s">
+    <row r="11" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B11" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>184</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C11" s="19" t="s">
+        <v>198</v>
+      </c>
+      <c r="D11" s="17" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="29" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C8" s="19" t="s">
-        <v>201</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>93</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="D10" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B11" s="36" t="s">
-        <v>159</v>
-      </c>
-      <c r="C11" s="17" t="s">
-        <v>107</v>
-      </c>
-      <c r="D11" s="17" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B12" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>206</v>
+        <v>97</v>
+      </c>
+      <c r="B12" s="34" t="s">
+        <v>90</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="28" x14ac:dyDescent="0.2">
       <c r="A13" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B13" s="37" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>180</v>
+        <v>97</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>183</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>182</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>161</v>
+        <v>97</v>
+      </c>
+      <c r="B14" s="34" t="s">
+        <v>156</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>208</v>
+        <v>105</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>181</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>95</v>
+        <v>97</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>92</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>110</v>
+        <v>203</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B16" s="37" t="s">
-        <v>96</v>
+        <v>97</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>157</v>
       </c>
       <c r="C16" s="17" t="s">
-        <v>112</v>
+        <v>177</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B17" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C17" s="21" t="s">
-        <v>114</v>
+      <c r="B17" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>205</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>115</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B18" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="C18" s="21" t="s">
-        <v>116</v>
+        <v>97</v>
+      </c>
+      <c r="B18" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="17" t="s">
+        <v>108</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B19" s="37" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+      <c r="A20" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B21" s="35" t="s">
+        <v>192</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>114</v>
+      </c>
+      <c r="D21" s="17" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>184</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B23" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="13" t="s">
+        <v>166</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="D19" s="17" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="B20" s="37" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="17" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>100</v>
-      </c>
-      <c r="D21" s="14" t="s">
+      <c r="D24" s="14" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A22" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B23" s="46" t="s">
-        <v>76</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>209</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>123</v>
+        <v>166</v>
+      </c>
+      <c r="B25" s="36" t="s">
+        <v>160</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>214</v>
+        <v>43</v>
       </c>
       <c r="D25" s="4" t="s">
-        <v>124</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B26" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>194</v>
+        <v>166</v>
+      </c>
+      <c r="B26" s="44" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>6</v>
+        <v>166</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>5</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>13</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B28" s="39" t="s">
-        <v>227</v>
+        <v>166</v>
+      </c>
+      <c r="B28" s="36" t="s">
+        <v>121</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>189</v>
+        <v>211</v>
       </c>
       <c r="D28" s="4" t="s">
-        <v>150</v>
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>18</v>
+        <v>166</v>
+      </c>
+      <c r="B29" s="36" t="s">
+        <v>161</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>190</v>
+        <v>105</v>
       </c>
       <c r="D29" s="4" t="s">
-        <v>147</v>
+        <v>191</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>144</v>
+        <v>166</v>
+      </c>
+      <c r="B30" s="36" t="s">
+        <v>6</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>148</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B31" s="38" t="s">
-        <v>154</v>
+        <v>166</v>
+      </c>
+      <c r="B31" s="37" t="s">
+        <v>224</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B32" s="38" t="s">
-        <v>156</v>
+        <v>166</v>
+      </c>
+      <c r="B32" s="36" t="s">
+        <v>18</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>157</v>
+        <v>187</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>158</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B33" s="38" t="s">
-        <v>7</v>
+        <v>166</v>
+      </c>
+      <c r="B33" s="36" t="s">
+        <v>141</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>44</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B34" s="38" t="s">
-        <v>8</v>
+        <v>166</v>
+      </c>
+      <c r="B34" s="36" t="s">
+        <v>151</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>14</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B35" s="39" t="s">
-        <v>16</v>
+        <v>166</v>
+      </c>
+      <c r="B35" s="36" t="s">
+        <v>153</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B36" s="38" t="s">
-        <v>218</v>
+        <v>166</v>
+      </c>
+      <c r="B36" s="36" t="s">
+        <v>7</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
+      </c>
+      <c r="D36" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B37" s="38" t="s">
-        <v>9</v>
+        <v>166</v>
+      </c>
+      <c r="B37" s="36" t="s">
+        <v>8</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>202</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>125</v>
+        <v>166</v>
+      </c>
+      <c r="B38" s="37" t="s">
+        <v>16</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D38" s="4" t="s">
-        <v>138</v>
+        <v>53</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>215</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B40" s="38" t="s">
-        <v>10</v>
+        <v>166</v>
+      </c>
+      <c r="B40" s="36" t="s">
+        <v>9</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>131</v>
+        <v>52</v>
       </c>
       <c r="D40" s="4" t="s">
-        <v>132</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B41" s="38" t="s">
-        <v>130</v>
+        <v>214</v>
+      </c>
+      <c r="B41" s="36" t="s">
+        <v>123</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="D41" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B42" s="38" t="s">
-        <v>78</v>
+        <v>214</v>
+      </c>
+      <c r="B42" s="36" t="s">
+        <v>124</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>80</v>
+        <v>207</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>152</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B43" s="38" t="s">
-        <v>79</v>
+        <v>166</v>
+      </c>
+      <c r="B43" s="36" t="s">
+        <v>10</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>81</v>
+        <v>128</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>82</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B44" s="39" t="s">
-        <v>11</v>
+        <v>166</v>
+      </c>
+      <c r="B44" s="36" t="s">
+        <v>127</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="D44" s="4" t="s">
-        <v>15</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="B45" s="39" t="s">
-        <v>84</v>
+        <v>166</v>
+      </c>
+      <c r="B45" s="36" t="s">
+        <v>77</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B46" s="38" t="s">
-        <v>143</v>
+        <v>166</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>78</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>145</v>
+        <v>80</v>
       </c>
       <c r="D46" s="4" t="s">
-        <v>146</v>
+        <v>81</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B47" s="38" t="s">
-        <v>20</v>
+        <v>166</v>
+      </c>
+      <c r="B47" s="37" t="s">
+        <v>11</v>
       </c>
       <c r="C47" s="4" t="s">
-        <v>59</v>
+        <v>82</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="B48" s="38" t="s">
-        <v>22</v>
+        <v>166</v>
+      </c>
+      <c r="B48" s="37" t="s">
+        <v>83</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>215</v>
+        <v>84</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B49" s="38" t="s">
-        <v>23</v>
+      <c r="B49" s="36" t="s">
+        <v>140</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>63</v>
+        <v>142</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>65</v>
+        <v>143</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B50" s="38" t="s">
-        <v>24</v>
+      <c r="B50" s="36" t="s">
+        <v>20</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>193</v>
+        <v>59</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B51" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51" s="5" t="s">
+      <c r="B51" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C51" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="D51" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" ht="56" x14ac:dyDescent="0.2">
+      <c r="D51" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B52" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="C52" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="D52" s="5" t="s">
-        <v>153</v>
+      <c r="B52" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53" s="40" t="s">
-        <v>73</v>
-      </c>
-      <c r="C53" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D53" s="5" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" ht="29" x14ac:dyDescent="0.2">
+        <v>19</v>
+      </c>
+      <c r="B53" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B54" s="42" t="s">
-        <v>121</v>
+        <v>19</v>
+      </c>
+      <c r="B54" s="36" t="s">
+        <v>25</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="56" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="B55" s="38" t="s">
-        <v>165</v>
-      </c>
-      <c r="C55" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>135</v>
+        <v>19</v>
+      </c>
+      <c r="B55" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>210</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2444,237 +2475,279 @@
         <v>31</v>
       </c>
       <c r="B56" s="38" t="s">
-        <v>127</v>
-      </c>
-      <c r="C56" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="29" x14ac:dyDescent="0.2">
       <c r="A57" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B57" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="C57" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>141</v>
+      <c r="B57" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="D57" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B58" s="43" t="s">
-        <v>129</v>
+      <c r="B58" s="36" t="s">
+        <v>162</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>207</v>
+        <v>193</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B59" s="38" t="s">
-        <v>167</v>
+      <c r="B59" s="36" t="s">
+        <v>125</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>173</v>
+        <v>137</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B60" s="38" t="s">
-        <v>168</v>
+      <c r="B60" s="36" t="s">
+        <v>167</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>211</v>
+        <v>136</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>174</v>
+        <v>138</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B61" s="43" t="s">
-        <v>171</v>
+      <c r="B61" s="41" t="s">
+        <v>126</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>175</v>
+        <v>139</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="B62" s="43" t="s">
-        <v>172</v>
+      <c r="B62" s="36" t="s">
+        <v>164</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B63" s="38" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="B63" s="36" t="s">
+        <v>165</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>55</v>
+        <v>208</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>46</v>
+        <v>171</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B64" s="38" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="B64" s="41" t="s">
+        <v>168</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>56</v>
+        <v>196</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>47</v>
+        <v>172</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="B65" s="38" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="B65" s="41" t="s">
+        <v>169</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>57</v>
+        <v>197</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>48</v>
+        <v>173</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B66" s="38" t="s">
-        <v>36</v>
+      <c r="B66" s="36" t="s">
+        <v>32</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B67" s="38" t="s">
-        <v>37</v>
+      <c r="B67" s="36" t="s">
+        <v>34</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B68" s="38" t="s">
-        <v>38</v>
+      <c r="B68" s="36" t="s">
+        <v>35</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="D68" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="38" t="s">
-        <v>39</v>
+        <v>33</v>
+      </c>
+      <c r="B69" s="36" t="s">
+        <v>36</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D69" s="4" t="s">
-        <v>60</v>
+        <v>49</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B70" s="38" t="s">
-        <v>40</v>
+        <v>33</v>
+      </c>
+      <c r="B70" s="36" t="s">
+        <v>37</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="D70" s="4" t="s">
-        <v>61</v>
+        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="B71" s="38" t="s">
-        <v>41</v>
+        <v>33</v>
+      </c>
+      <c r="B71" s="36" t="s">
+        <v>38</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>62</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="B72" s="38" t="s">
-        <v>177</v>
+      <c r="B72" s="36" t="s">
+        <v>39</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>178</v>
+        <v>67</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>179</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B73" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="C74" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B75" s="36" t="s">
+        <v>174</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>176</v>
       </c>
     </row>
   </sheetData>
@@ -2687,6 +2760,73 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B84D8B-C08D-C242-ABE4-71F14D853CEB}">
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>233</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="29" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="49" t="s">
+        <v>234</v>
+      </c>
+      <c r="B4" s="49" t="s">
+        <v>235</v>
+      </c>
+      <c r="C4" s="49" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="50"/>
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{422A67CE-83F0-2A4B-88E8-E8A3F38049A2}">
   <dimension ref="A1:O4"/>
   <sheetViews>
@@ -2694,14 +2834,14 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" sqref="A1:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.83203125" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="85.33203125" style="33" customWidth="1"/>
+    <col min="4" max="4" width="85.33203125" style="32" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.5" bestFit="1" customWidth="1"/>
@@ -2709,76 +2849,76 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>224</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="29" t="s">
+      <c r="A1" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="28" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="29"/>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="43" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
-        <v>27</v>
-      </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
-      <c r="D2" s="30"/>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="30" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A4" s="45" t="s">
-        <v>225</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="B4" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>89</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="E4" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="F4" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E4" s="31" t="s">
+      <c r="G4" s="30" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="31" t="s">
         <v>92</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="I4" s="31" t="s">
+        <v>157</v>
+      </c>
+      <c r="J4" s="31" t="s">
+        <v>158</v>
+      </c>
+      <c r="K4" s="31" t="s">
         <v>93</v>
       </c>
-      <c r="G4" s="31" t="s">
-        <v>159</v>
-      </c>
-      <c r="H4" s="32" t="s">
+      <c r="L4" s="31" t="s">
         <v>94</v>
       </c>
-      <c r="I4" s="32" t="s">
-        <v>160</v>
-      </c>
-      <c r="J4" s="32" t="s">
-        <v>161</v>
-      </c>
-      <c r="K4" s="32" t="s">
+      <c r="M4" s="31" t="s">
         <v>95</v>
       </c>
-      <c r="L4" s="32" t="s">
+      <c r="N4" s="31" t="s">
+        <v>192</v>
+      </c>
+      <c r="O4" s="31" t="s">
         <v>96</v>
-      </c>
-      <c r="M4" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="N4" s="32" t="s">
-        <v>195</v>
-      </c>
-      <c r="O4" s="32" t="s">
-        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -2796,252 +2936,242 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED99CF4A-5D49-794D-A1CB-3B08F37AF445}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:BA5"/>
+  <dimension ref="A1:AX5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" ySplit="5" topLeftCell="T6" activePane="bottomRight" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="9" ySplit="5" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="J1" sqref="J1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="AC13" sqref="AC13"/>
+      <selection pane="bottomRight" activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="20.5" customWidth="1"/>
     <col min="3" max="3" width="24.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" style="11" customWidth="1"/>
+    <col min="4" max="4" width="22" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="26.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="13" customWidth="1"/>
-    <col min="14" max="14" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="9" style="12" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="15.5" style="12" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.5" customWidth="1"/>
-    <col min="31" max="31" width="10.83203125" customWidth="1"/>
-    <col min="32" max="32" width="22.6640625" customWidth="1"/>
-    <col min="33" max="33" width="31.1640625" customWidth="1"/>
-    <col min="34" max="34" width="17.5" customWidth="1"/>
-    <col min="35" max="35" width="27" customWidth="1"/>
-    <col min="36" max="36" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="38" max="38" width="18.1640625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="45" max="47" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="13" customWidth="1"/>
+    <col min="12" max="12" width="29.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.1640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9" style="12" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5" customWidth="1"/>
+    <col min="28" max="28" width="10.83203125" customWidth="1"/>
+    <col min="29" max="29" width="22.6640625" customWidth="1"/>
+    <col min="30" max="30" width="31.1640625" customWidth="1"/>
+    <col min="31" max="31" width="17.5" customWidth="1"/>
+    <col min="32" max="32" width="27" customWidth="1"/>
+    <col min="33" max="33" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="45" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="14.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
-        <v>223</v>
-      </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
+    <row r="1" spans="1:50" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>220</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="D1" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="49"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="47"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:53" x14ac:dyDescent="0.2">
-      <c r="A3" s="48"/>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+    <row r="3" spans="1:50" x14ac:dyDescent="0.2">
+      <c r="A3" s="46"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="47"/>
       <c r="D3" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:53" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>169</v>
-      </c>
-      <c r="AA4" t="s">
+        <v>166</v>
+      </c>
+      <c r="X4" t="s">
         <v>19</v>
       </c>
-      <c r="AH4" t="s">
+      <c r="AE4" t="s">
         <v>31</v>
       </c>
-      <c r="AR4" t="s">
+      <c r="AO4" t="s">
         <v>33</v>
       </c>
-      <c r="AX4" t="s">
+      <c r="AU4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="8" customFormat="1" ht="28" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:50" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>87</v>
+      <c r="B5" s="22" t="s">
+        <v>86</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>228</v>
-      </c>
-      <c r="D5" s="35" t="s">
-        <v>88</v>
+        <v>225</v>
+      </c>
+      <c r="D5" s="33" t="s">
+        <v>230</v>
       </c>
       <c r="E5" s="24" t="s">
         <v>70</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="H5" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="I5" s="23" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
       <c r="K5" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="L5" s="24" t="s">
-        <v>154</v>
+        <v>227</v>
       </c>
       <c r="M5" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="24" t="s">
-        <v>230</v>
+        <v>8</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="O5" s="24" t="s">
-        <v>8</v>
-      </c>
-      <c r="P5" s="23" t="s">
-        <v>16</v>
+        <v>215</v>
+      </c>
+      <c r="P5" s="24" t="s">
+        <v>231</v>
       </c>
       <c r="Q5" s="24" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="R5" s="24" t="s">
-        <v>71</v>
+        <v>124</v>
       </c>
       <c r="S5" s="24" t="s">
+        <v>232</v>
+      </c>
+      <c r="T5" s="25" t="s">
+        <v>77</v>
+      </c>
+      <c r="U5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="V5" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="W5" s="26" t="s">
+        <v>76</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y5" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z5" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA5" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="27" t="s">
+        <v>228</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>229</v>
+      </c>
+      <c r="AE5" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="AF5" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG5" s="24" t="s">
+        <v>162</v>
+      </c>
+      <c r="AH5" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="T5" s="24" t="s">
+      <c r="AI5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AJ5" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="U5" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="V5" s="24" t="s">
-        <v>128</v>
-      </c>
-      <c r="W5" s="25" t="s">
-        <v>78</v>
-      </c>
-      <c r="X5" s="25" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y5" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="Z5" s="26" t="s">
-        <v>77</v>
-      </c>
-      <c r="AA5" s="25" t="s">
-        <v>143</v>
-      </c>
-      <c r="AB5" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="AC5" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="AD5" s="24" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE5" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="AF5" s="28" t="s">
-        <v>231</v>
-      </c>
-      <c r="AG5" s="28" t="s">
-        <v>232</v>
-      </c>
-      <c r="AH5" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="AI5" s="28" t="s">
-        <v>121</v>
-      </c>
-      <c r="AJ5" s="24" t="s">
+      <c r="AK5" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="AL5" s="25" t="s">
         <v>165</v>
       </c>
-      <c r="AK5" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="AL5" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="AM5" s="24" t="s">
-        <v>129</v>
+      <c r="AM5" s="25" t="s">
+        <v>168</v>
       </c>
       <c r="AN5" s="25" t="s">
-        <v>167</v>
-      </c>
-      <c r="AO5" s="25" t="s">
-        <v>168</v>
-      </c>
-      <c r="AP5" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="AQ5" s="25" t="s">
-        <v>172</v>
+        <v>169</v>
+      </c>
+      <c r="AO5" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP5" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="AQ5" s="24" t="s">
+        <v>35</v>
       </c>
       <c r="AR5" s="24" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="AS5" s="24" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="AT5" s="24" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AU5" s="24" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="AV5" s="24" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AW5" s="24" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="AX5" s="24" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY5" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="AZ5" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="BA5" s="24" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
   </sheetData>
@@ -3052,42 +3182,39 @@
     <mergeCell ref="A2:C2"/>
     <mergeCell ref="A3:C3"/>
   </mergeCells>
-  <dataValidations count="13">
-    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Unknown sex " error="You have entered an unknown value for sex " promptTitle="Sex" sqref="N5" xr:uid="{61B800F7-85EA-B74C-8D79-217EB2BB8728}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6:T999" xr:uid="{C1262AB6-4400-D04A-976B-8F918C2989AD}">
+  <dataValidations count="12">
+    <dataValidation showInputMessage="1" showErrorMessage="1" errorTitle="Unknown sex " error="You have entered an unknown value for sex " promptTitle="Sex" sqref="L5" xr:uid="{61B800F7-85EA-B74C-8D79-217EB2BB8728}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R6:R999" xr:uid="{C1262AB6-4400-D04A-976B-8F918C2989AD}">
       <formula1>"Total, Fork, Standard, Carapace"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N999" xr:uid="{8B693881-68ED-E14E-BF9E-57D22ABE1721}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L999" xr:uid="{8B693881-68ED-E14E-BF9E-57D22ABE1721}">
       <formula1>"male, female, unknown, mixed"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F6:F999" xr:uid="{DF355696-A0A3-6D45-A97F-2A26E0345658}">
       <formula1>"spring, summer, fall, winter"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O6:O999" xr:uid="{902A8EAA-BA0B-3841-A3F9-192A21FA4623}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M6:M999" xr:uid="{902A8EAA-BA0B-3841-A3F9-192A21FA4623}">
       <formula1>"fry, larvae, juvenile, adult "</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P6:P999" xr:uid="{D59253B5-564B-1D47-923E-DC586A575C35}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N6:N999" xr:uid="{D59253B5-564B-1D47-923E-DC586A575C35}">
       <formula1>"wild, lab"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:W999" xr:uid="{C755E85C-A899-4249-A46D-96F0A4790228}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T6:T999" xr:uid="{C755E85C-A899-4249-A46D-96F0A4790228}">
       <formula1>"individual, composite, mean, equation"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y6:Y999" xr:uid="{DE8D5097-D7B7-D64B-9AA3-BBCDB593CD44}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V999" xr:uid="{DE8D5097-D7B7-D64B-9AA3-BBCDB593CD44}">
       <formula1>"muscle, liver, stomach, scales, otolith, spines, cleithra, whole body"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z6:Z999" xr:uid="{618BEA16-FB85-144A-9DB4-305EFF123E53}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="W6:W999" xr:uid="{618BEA16-FB85-144A-9DB4-305EFF123E53}">
       <formula1>"wet, dried"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AK6:AK999" xr:uid="{66E4A2BE-9678-EC4D-BD77-D6B9C6555CFA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH999" xr:uid="{66E4A2BE-9678-EC4D-BD77-D6B9C6555CFA}">
       <formula1>"wet, dry"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V6:V9999" xr:uid="{4A464527-0C39-9F4B-9AC7-BBC9D03229A6}">
-      <formula1>"g"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AL1001:AL9999 AM6:AM1000" xr:uid="{E08CD4DA-AE11-DB40-922E-0C3ECAF74329}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AI1001:AI9999 AJ6:AJ1000" xr:uid="{E08CD4DA-AE11-DB40-922E-0C3ECAF74329}">
       <formula1>"Joules/g"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AH6:AH1000" xr:uid="{9917EF8E-9D15-EA4E-B86B-60B39CF888A1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE6:AE1000" xr:uid="{9917EF8E-9D15-EA4E-B86B-60B39CF888A1}">
       <formula1>"Parr oxygen bomb, Parr semi-micro oxygen bomb, Phillipson microbomb, Gentry-Weigert bomb, Unknown bomb, Proximate composition, Organic analysis, Wet digestion, Unknown"</formula1>
     </dataValidation>
   </dataValidations>
